--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA983FD-0307-44EE-A82A-2226DEE1B221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809862EB-1BF9-4C15-A23E-BD377592057A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="164">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -348,18 +348,12 @@
     <t>67v3q</t>
   </si>
   <si>
-    <t>Selena Storm Haven</t>
-  </si>
-  <si>
     <t>Selena, Sugarkiss Assasin</t>
   </si>
   <si>
     <t>74zWI</t>
   </si>
   <si>
-    <t>Summit Haven</t>
-  </si>
-  <si>
     <t>Summit Temple</t>
   </si>
   <si>
@@ -508,6 +502,21 @@
   </si>
   <si>
     <t>6YbpC</t>
+  </si>
+  <si>
+    <t>Pure Summit Haven</t>
+  </si>
+  <si>
+    <t>Storm Haven</t>
+  </si>
+  <si>
+    <t>Amulet Haven</t>
+  </si>
+  <si>
+    <t>Skullfane</t>
+  </si>
+  <si>
+    <t>6477I</t>
   </si>
 </sst>
 </file>
@@ -877,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1068,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
@@ -1215,10 +1224,10 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>64</v>
@@ -1469,74 +1478,74 @@
     </row>
     <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>14</v>
@@ -1547,22 +1556,22 @@
     </row>
     <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>14</v>
@@ -1573,22 +1582,22 @@
     </row>
     <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1599,22 +1608,22 @@
     </row>
     <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1625,74 +1634,74 @@
     </row>
     <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -1701,107 +1710,133 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809862EB-1BF9-4C15-A23E-BD377592057A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FE151-10CD-4293-AE08-94F809D72767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="167">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>6477I</t>
+  </si>
+  <si>
+    <t>Pure Dagon Dragon</t>
+  </si>
+  <si>
+    <t>Dagon, Lord of the Seas</t>
+  </si>
+  <si>
+    <t>6ixR6</t>
   </si>
 </sst>
 </file>
@@ -567,9 +576,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,48 +1230,48 @@
     </row>
     <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -1268,24 +1280,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -1294,9 +1306,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
@@ -1308,10 +1320,10 @@
         <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1322,74 +1334,74 @@
     </row>
     <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>88</v>
@@ -1400,22 +1412,22 @@
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>88</v>
@@ -1424,50 +1436,50 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>14</v>
@@ -1476,102 +1488,102 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" t="s">
-        <v>158</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>14</v>
@@ -1582,22 +1594,22 @@
     </row>
     <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1608,22 +1620,22 @@
     </row>
     <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1634,22 +1646,22 @@
     </row>
     <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1660,74 +1672,74 @@
     </row>
     <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
@@ -1736,107 +1748,133 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FE151-10CD-4293-AE08-94F809D72767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E1DA8-BFDA-492F-9649-AE6A48DCCBB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="172">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -526,6 +526,21 @@
   </si>
   <si>
     <t>6ixR6</t>
+  </si>
+  <si>
+    <t>Average Sword</t>
+  </si>
+  <si>
+    <t>Average Axeman</t>
+  </si>
+  <si>
+    <t>76r8i</t>
+  </si>
+  <si>
+    <t>Unsheathed Blade</t>
+  </si>
+  <si>
+    <t>6LB9w</t>
   </si>
 </sst>
 </file>
@@ -898,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,74 +1141,74 @@
     </row>
     <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1204,22 +1219,22 @@
     </row>
     <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -1230,22 +1245,22 @@
     </row>
     <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>165</v>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -1256,48 +1271,48 @@
     </row>
     <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -1306,24 +1321,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1332,9 +1347,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
@@ -1346,10 +1361,10 @@
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -1360,74 +1375,74 @@
     </row>
     <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>88</v>
@@ -1438,22 +1453,22 @@
     </row>
     <row r="21" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>88</v>
@@ -1462,50 +1477,50 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1514,102 +1529,102 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" t="s">
-        <v>158</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>163</v>
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>158</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1620,22 +1635,22 @@
     </row>
     <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1646,22 +1661,22 @@
     </row>
     <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1672,22 +1687,22 @@
     </row>
     <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
@@ -1698,74 +1713,74 @@
     </row>
     <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>14</v>
@@ -1774,107 +1789,133 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E1DA8-BFDA-492F-9649-AE6A48DCCBB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954070CB-4BFB-4D13-8DDA-6FAEB6FD74D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="173">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>6LB9w</t>
+  </si>
+  <si>
+    <t>gXuCq</t>
   </si>
 </sst>
 </file>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1315,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -1321,24 +1324,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1347,24 +1350,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -1373,9 +1376,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>63</v>
@@ -1387,10 +1390,10 @@
         <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -1401,74 +1404,74 @@
     </row>
     <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>88</v>
@@ -1479,22 +1482,22 @@
     </row>
     <row r="22" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>88</v>
@@ -1503,50 +1506,50 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
@@ -1555,102 +1558,102 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" t="s">
-        <v>158</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>163</v>
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1661,22 +1664,22 @@
     </row>
     <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1687,22 +1690,22 @@
     </row>
     <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
@@ -1713,22 +1716,22 @@
     </row>
     <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -1739,74 +1742,74 @@
     </row>
     <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
@@ -1815,107 +1818,133 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954070CB-4BFB-4D13-8DDA-6FAEB6FD74D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A9BCE-5ACD-4DFD-8838-F52AA6AB5F9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="180">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -219,12 +219,6 @@
     <t>Shadow</t>
   </si>
   <si>
-    <t>Necroimpulse</t>
-  </si>
-  <si>
-    <t>748Xg</t>
-  </si>
-  <si>
     <t>Atomy Shadow</t>
   </si>
   <si>
@@ -315,24 +309,9 @@
     <t>6c1Xi</t>
   </si>
   <si>
-    <t>Control Haven</t>
-  </si>
-  <si>
     <t>Haven</t>
   </si>
   <si>
-    <t>Realm of Repose</t>
-  </si>
-  <si>
-    <t>6cLYo</t>
-  </si>
-  <si>
-    <t>Aegina</t>
-  </si>
-  <si>
-    <t>6N6xy</t>
-  </si>
-  <si>
     <t>Elana Haven</t>
   </si>
   <si>
@@ -498,21 +477,9 @@
     <t>745MY</t>
   </si>
   <si>
-    <t>Petra, Ether of the WInd</t>
-  </si>
-  <si>
-    <t>6YbpC</t>
-  </si>
-  <si>
     <t>Pure Summit Haven</t>
   </si>
   <si>
-    <t>Storm Haven</t>
-  </si>
-  <si>
-    <t>Amulet Haven</t>
-  </si>
-  <si>
     <t>Skullfane</t>
   </si>
   <si>
@@ -543,7 +510,61 @@
     <t>6LB9w</t>
   </si>
   <si>
-    <t>gXuCq</t>
+    <t>Skillfane Haven</t>
+  </si>
+  <si>
+    <t>Selena Summit Haven</t>
+  </si>
+  <si>
+    <t>78lSg</t>
+  </si>
+  <si>
+    <t>Elana Summit Haven</t>
+  </si>
+  <si>
+    <t>Major Prayers</t>
+  </si>
+  <si>
+    <t>6zJWw</t>
+  </si>
+  <si>
+    <t>Snnneak Attack!</t>
+  </si>
+  <si>
+    <t>6rc6o</t>
+  </si>
+  <si>
+    <t>Ra Haven</t>
+  </si>
+  <si>
+    <t>Ra, Radiance Incarnate</t>
+  </si>
+  <si>
+    <t>719Nc</t>
+  </si>
+  <si>
+    <t>Dionne Sword</t>
+  </si>
+  <si>
+    <t>Dionne, Dancing Blade</t>
+  </si>
+  <si>
+    <t>gPAqo</t>
+  </si>
+  <si>
+    <t>6eMT6</t>
+  </si>
+  <si>
+    <t>6XU_o</t>
+  </si>
+  <si>
+    <t>Zooey, Arbiter of the Skies</t>
+  </si>
+  <si>
+    <t>Bone Fanatic</t>
+  </si>
+  <si>
+    <t>745Mi</t>
   </si>
 </sst>
 </file>
@@ -916,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +949,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
@@ -1098,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
@@ -1116,7 +1137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1142,24 +1163,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -1168,24 +1189,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -1196,22 +1217,22 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1222,22 +1243,22 @@
     </row>
     <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -1246,24 +1267,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -1274,22 +1295,22 @@
     </row>
     <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>165</v>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -1298,24 +1319,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>156</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -1326,22 +1347,22 @@
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
+      <c r="E16" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1352,22 +1373,22 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -1376,24 +1397,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -1402,18 +1423,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>70</v>
@@ -1430,308 +1451,308 @@
     </row>
     <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -1742,126 +1763,126 @@
     </row>
     <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -1872,48 +1893,48 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -1924,27 +1945,131 @@
     </row>
     <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4A9BCE-5ACD-4DFD-8838-F52AA6AB5F9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCECB9-FA74-4BD5-9550-3A97B3345142}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="192">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -72,21 +72,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Vehicle Forest</t>
-  </si>
-  <si>
-    <t>Giant Pastures</t>
-  </si>
-  <si>
-    <t>72eb2</t>
-  </si>
-  <si>
-    <t>Varmint Hunter</t>
-  </si>
-  <si>
-    <t>72c8y</t>
-  </si>
-  <si>
     <t>Rhinoceroach Forest</t>
   </si>
   <si>
@@ -315,12 +300,6 @@
     <t>Elana Haven</t>
   </si>
   <si>
-    <t>Elana, Purest Prayer</t>
-  </si>
-  <si>
-    <t>6nupS</t>
-  </si>
-  <si>
     <t>Elana's Prayer</t>
   </si>
   <si>
@@ -486,9 +465,6 @@
     <t>6477I</t>
   </si>
   <si>
-    <t>Pure Dagon Dragon</t>
-  </si>
-  <si>
     <t>Dagon, Lord of the Seas</t>
   </si>
   <si>
@@ -565,6 +541,66 @@
   </si>
   <si>
     <t>745Mi</t>
+  </si>
+  <si>
+    <t>Aggro Forest</t>
+  </si>
+  <si>
+    <t>Cowboy Cactus</t>
+  </si>
+  <si>
+    <t>72Zis</t>
+  </si>
+  <si>
+    <t>72BIC</t>
+  </si>
+  <si>
+    <t>Quixotic Adventurer</t>
+  </si>
+  <si>
+    <t>Loxis, Homestead Pioneer</t>
+  </si>
+  <si>
+    <t>72h1S</t>
+  </si>
+  <si>
+    <t>Loxis-Roach Forest</t>
+  </si>
+  <si>
+    <t>Dagon Dragon</t>
+  </si>
+  <si>
+    <t>Aggro Rune</t>
+  </si>
+  <si>
+    <t>73RsI</t>
+  </si>
+  <si>
+    <t>Maiser, Neighborhood Hero</t>
+  </si>
+  <si>
+    <t>72BI2</t>
+  </si>
+  <si>
+    <t>Rivaylian Bandit</t>
+  </si>
+  <si>
+    <t>Rally Tri-head Shadow</t>
+  </si>
+  <si>
+    <t>6-UTy</t>
+  </si>
+  <si>
+    <t>Fieran, Havensent Wind God</t>
+  </si>
+  <si>
+    <t>Tri-Head Hound</t>
+  </si>
+  <si>
+    <t>77-OC</t>
+  </si>
+  <si>
+    <t>Volteo Blood</t>
   </si>
 </sst>
 </file>
@@ -588,7 +624,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -611,16 +647,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,24 +1069,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1033,128 +1095,128 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -1165,22 +1227,22 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -1191,22 +1253,22 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -1217,22 +1279,22 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1241,128 +1303,128 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>154</v>
+      <c r="E16" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1373,22 +1435,22 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>178</v>
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -1399,74 +1461,74 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
@@ -1477,68 +1539,68 @@
     </row>
     <row r="21" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>79</v>
@@ -1547,108 +1609,108 @@
         <v>80</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1657,154 +1719,154 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" t="s">
-        <v>168</v>
+      <c r="E30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>14</v>
@@ -1815,22 +1877,22 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
@@ -1841,22 +1903,22 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>14</v>
@@ -1867,22 +1929,22 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -1893,74 +1955,74 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -1969,24 +2031,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -1997,79 +2059,183 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCECB9-FA74-4BD5-9550-3A97B3345142}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FBF53A-1759-49D7-BCF6-C226829337C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="201">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -601,6 +601,33 @@
   </si>
   <si>
     <t>Volteo Blood</t>
+  </si>
+  <si>
+    <t>City of Gold</t>
+  </si>
+  <si>
+    <t>6cQBg</t>
+  </si>
+  <si>
+    <t>City of Gold Haven</t>
+  </si>
+  <si>
+    <t>Sanctuary Haven</t>
+  </si>
+  <si>
+    <t>74xJg</t>
+  </si>
+  <si>
+    <t>Holy Sanctuary</t>
+  </si>
+  <si>
+    <t>Dreadlord Shadow</t>
+  </si>
+  <si>
+    <t>Conquering Dreadlord</t>
+  </si>
+  <si>
+    <t>70OYS</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,22 +1930,22 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>14</v>
@@ -1929,22 +1956,22 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -1955,22 +1982,22 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -1981,74 +2008,74 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -2057,24 +2084,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -2085,157 +2112,235 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>183</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>184</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>187</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>189</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>190</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FBF53A-1759-49D7-BCF6-C226829337C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1142B5-11D4-48BE-B190-90582C019C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5759644E-81FE-4CB0-A5F1-F36CEE0C68DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="199">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -405,21 +405,6 @@
     <t>6auI2</t>
   </si>
   <si>
-    <t>Float Portal</t>
-  </si>
-  <si>
-    <t>Karula, Arts Master</t>
-  </si>
-  <si>
-    <t>6vvVo</t>
-  </si>
-  <si>
-    <t>Hamelin</t>
-  </si>
-  <si>
-    <t>6RH4I</t>
-  </si>
-  <si>
     <t>Aggro Dragon</t>
   </si>
   <si>
@@ -628,19 +613,34 @@
   </si>
   <si>
     <t>70OYS</t>
+  </si>
+  <si>
+    <t>Ragna OTK Portal</t>
+  </si>
+  <si>
+    <t>Awakened Ragna</t>
+  </si>
+  <si>
+    <t>6s65g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -698,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -711,6 +711,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32242C59-DA2B-42A4-A7BB-DC5CC65BCD47}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,22 +1104,22 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1124,16 +1130,16 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1234,10 +1240,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
@@ -1280,22 +1286,22 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -1306,22 +1312,22 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1332,22 +1338,22 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -1448,10 +1454,10 @@
         <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1462,22 +1468,22 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -1494,16 +1500,16 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>89</v>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>89</v>
@@ -1763,7 +1769,7 @@
         <v>95</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="29" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>89</v>
@@ -1800,7 +1806,7 @@
     </row>
     <row r="30" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>89</v>
@@ -1815,7 +1821,7 @@
         <v>95</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>98</v>
@@ -1826,22 +1832,22 @@
     </row>
     <row r="31" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>93</v>
@@ -1852,22 +1858,22 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
@@ -1904,22 +1910,22 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
@@ -1930,22 +1936,22 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>14</v>
@@ -2141,7 +2147,7 @@
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>127</v>
@@ -2150,30 +2156,30 @@
         <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>132</v>
@@ -2189,23 +2195,23 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>138</v>
+      <c r="A45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
+        <v>179</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>14</v>
@@ -2214,25 +2220,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D46" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
         <v>185</v>
       </c>
-      <c r="F46" t="s">
-        <v>184</v>
-      </c>
       <c r="G46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2240,24 +2246,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" t="s">
-        <v>189</v>
+        <v>82</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>14</v>
@@ -2268,22 +2274,22 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>81</v>
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>14</v>
@@ -2294,22 +2300,22 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" t="s">
-        <v>192</v>
-      </c>
       <c r="D49" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>14</v>
@@ -2319,28 +2325,28 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
         <v>198</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>199</v>
+      <c r="E50" t="s">
+        <v>197</v>
       </c>
       <c r="F50" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhafi\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB0E558-B2D8-452A-9E15-48F7A6585E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="210">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -334,36 +325,42 @@
     <t>6yx6Q</t>
   </si>
   <si>
+    <t>Bloodtroth Epitaph</t>
+  </si>
+  <si>
+    <t>74Z8o</t>
+  </si>
+  <si>
+    <t>Control Blood</t>
+  </si>
+  <si>
+    <t>Azazel, the Depraved</t>
+  </si>
+  <si>
+    <t>6nTyY</t>
+  </si>
+  <si>
+    <t>Archangel of Evocation</t>
+  </si>
+  <si>
+    <t>6-S1i</t>
+  </si>
+  <si>
+    <t>Volteo, Hedonistic Dealer</t>
+  </si>
+  <si>
+    <t>74b5o</t>
+  </si>
+  <si>
+    <t>Corruption Blood</t>
+  </si>
+  <si>
     <t>Ravening Corruption</t>
   </si>
   <si>
     <t>6ywNi</t>
   </si>
   <si>
-    <t>Control Blood</t>
-  </si>
-  <si>
-    <t>Azazel, the Depraved</t>
-  </si>
-  <si>
-    <t>6nTyY</t>
-  </si>
-  <si>
-    <t>Archangel of Evocation</t>
-  </si>
-  <si>
-    <t>6-S1i</t>
-  </si>
-  <si>
-    <t>Volteo, Hedonistic Dealer</t>
-  </si>
-  <si>
-    <t>74b5o</t>
-  </si>
-  <si>
-    <t>Corruption Blood</t>
-  </si>
-  <si>
     <t>Wrath Blood</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
     <t>Jatelant Haven</t>
   </si>
   <si>
+    <t>Jatelant</t>
+  </si>
+  <si>
     <t>7CboS</t>
   </si>
   <si>
@@ -640,36 +640,36 @@
     <t>6zLEc</t>
   </si>
   <si>
-    <t>Jatelant, God of Prosperity</t>
+    <t>Epitaph Blood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -678,17 +678,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -702,7 +696,6 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -711,66 +704,62 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -960,32 +949,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.13"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
+    <col customWidth="1" min="3" max="3" width="22.13"/>
+    <col customWidth="1" min="4" max="4" width="14.75"/>
+    <col customWidth="1" min="5" max="5" width="22.75"/>
+    <col customWidth="1" min="6" max="6" width="12.25"/>
+    <col customWidth="1" min="7" max="7" width="13.13"/>
+    <col customWidth="1" min="8" max="8" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1063,7 +1050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1219,7 +1206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1245,7 +1232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1271,7 +1258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1323,7 +1310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -1349,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -1375,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -1401,7 +1388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -1427,7 +1414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -1453,7 +1440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -1479,7 +1466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -1505,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1531,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -1550,14 +1537,14 @@
       <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
@@ -1583,7 +1570,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -1591,16 +1578,16 @@
         <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>111</v>
@@ -1609,24 +1596,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>111</v>
@@ -1635,206 +1622,206 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>14</v>
@@ -1843,24 +1830,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
@@ -1869,24 +1856,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>14</v>
@@ -1895,24 +1882,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -1921,24 +1908,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -1947,24 +1934,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -1973,24 +1960,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>47</v>
@@ -1999,24 +1986,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -2025,9 +2012,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>59</v>
@@ -2039,10 +2026,10 @@
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -2051,24 +2038,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
@@ -2077,24 +2064,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>14</v>
@@ -2103,24 +2090,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>14</v>
@@ -2129,24 +2116,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>62</v>
@@ -2155,24 +2142,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>187</v>
+      <c r="C46" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>14</v>
@@ -2181,20 +2168,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2207,24 +2194,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>120</v>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>14</v>
@@ -2233,24 +2220,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>196</v>
+      <c r="C49" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>14</v>
@@ -2259,35 +2246,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>150</v>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>59</v>
@@ -2311,982 +2298,1009 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="10" t="s">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="255">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -67,10 +67,13 @@
     <t>72BIC</t>
   </si>
   <si>
-    <t>Cowboy Cactus</t>
-  </si>
-  <si>
-    <t>72Zis</t>
+    <t>Sukuna, Brave and Small</t>
+  </si>
+  <si>
+    <t>6DCAy</t>
+  </si>
+  <si>
+    <t>gdZF2</t>
   </si>
   <si>
     <t>Loxis-Roach Forest</t>
@@ -103,13 +106,26 @@
     <t>61Q1A</t>
   </si>
   <si>
-    <t>Whirlwind Rhinoceroach Forest</t>
-  </si>
-  <si>
-    <t>Whirlwind Rhinoceroach</t>
-  </si>
-  <si>
-    <t>6lZu2</t>
+    <t>Machina Foreset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damian, Drillarm Brawler
+</t>
+  </si>
+  <si>
+    <t>6x2lS</t>
+  </si>
+  <si>
+    <t>Damian, Drillarm Brawler</t>
+  </si>
+  <si>
+    <t>Ladica Forest</t>
+  </si>
+  <si>
+    <t>Ladica, Verdant Claw</t>
+  </si>
+  <si>
+    <t>7E7SS</t>
   </si>
   <si>
     <t>Lockdown Sword</t>
@@ -118,10 +134,10 @@
     <t>Sword</t>
   </si>
   <si>
-    <t>Test of Strength</t>
-  </si>
-  <si>
-    <t>6CnpI</t>
+    <t>Armor of the Stars</t>
+  </si>
+  <si>
+    <t>6LDcA</t>
   </si>
   <si>
     <t>Steadfast Samurai</t>
@@ -139,10 +155,10 @@
     <t>6xPSQ</t>
   </si>
   <si>
-    <t>Sky Commander Celia</t>
-  </si>
-  <si>
-    <t>6Sw1o</t>
+    <t>Sera, Maiden of the Dawn</t>
+  </si>
+  <si>
+    <t>7Ahjy</t>
   </si>
   <si>
     <t>Spartacus Sword</t>
@@ -187,6 +203,21 @@
     <t>76r8i</t>
   </si>
   <si>
+    <t>MistoBay Loop Sword</t>
+  </si>
+  <si>
+    <t>Mistolina &amp; Bayleon</t>
+  </si>
+  <si>
+    <t>7EVso</t>
+  </si>
+  <si>
+    <t>Dramatic Retreat</t>
+  </si>
+  <si>
+    <t>72_IA</t>
+  </si>
+  <si>
     <t>Dimension Shift Rune</t>
   </si>
   <si>
@@ -262,6 +293,21 @@
     <t>6ixR6</t>
   </si>
   <si>
+    <t>Natura Dragon</t>
+  </si>
+  <si>
+    <t>Djeana, the Stouthearted</t>
+  </si>
+  <si>
+    <t>7FEFY</t>
+  </si>
+  <si>
+    <t>Feral Aether</t>
+  </si>
+  <si>
+    <t>6qVZA</t>
+  </si>
+  <si>
     <t>Aggro Shadow</t>
   </si>
   <si>
@@ -280,6 +326,21 @@
     <t>745Mi</t>
   </si>
   <si>
+    <t>Minthe Shadow</t>
+  </si>
+  <si>
+    <t>Gremory, Death Teller</t>
+  </si>
+  <si>
+    <t>6yaPI</t>
+  </si>
+  <si>
+    <t>Minthe of the Underworld</t>
+  </si>
+  <si>
+    <t>6EojI</t>
+  </si>
+  <si>
     <t>Atomy Shadow</t>
   </si>
   <si>
@@ -289,19 +350,70 @@
     <t>63MIS</t>
   </si>
   <si>
-    <t>Minthe Shadow</t>
-  </si>
-  <si>
-    <t>Gremory, Death Teller</t>
-  </si>
-  <si>
-    <t>6yaPI</t>
-  </si>
-  <si>
-    <t>Minthe of the Underworld</t>
-  </si>
-  <si>
-    <t>6EojI</t>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>6Cueo</t>
+  </si>
+  <si>
+    <t>Ceres, Bride of the Night</t>
+  </si>
+  <si>
+    <t>7BqzI</t>
+  </si>
+  <si>
+    <t>Ceres OTK Shadow</t>
+  </si>
+  <si>
+    <t>Last Words Shadow</t>
+  </si>
+  <si>
+    <t>Thoth</t>
+  </si>
+  <si>
+    <t>6qy7S</t>
+  </si>
+  <si>
+    <t>Chris, Beyond the Patch</t>
+  </si>
+  <si>
+    <t>7BoX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>Philosopher Shadow</t>
+  </si>
+  <si>
+    <t>Philosopher of Death</t>
+  </si>
+  <si>
+    <t>74AFC</t>
+  </si>
+  <si>
+    <t>Fatal Order</t>
+  </si>
+  <si>
+    <t>gXuCg</t>
+  </si>
+  <si>
+    <t>Machina Gremory Shadow</t>
+  </si>
+  <si>
+    <t>Nicola, Enduring Steward</t>
+  </si>
+  <si>
+    <t>7Ff6I</t>
+  </si>
+  <si>
+    <t>Machina Shadow</t>
+  </si>
+  <si>
+    <t>Aenea, Creative Amethyst</t>
+  </si>
+  <si>
+    <t>7Ff6S</t>
   </si>
   <si>
     <t>Gremory Shadow</t>
@@ -397,9 +509,6 @@
     <t>Elana Summit Haven</t>
   </si>
   <si>
-    <t>78lSg</t>
-  </si>
-  <si>
     <t>Selena Summit Haven</t>
   </si>
   <si>
@@ -457,13 +566,28 @@
     <t>719Nc</t>
   </si>
   <si>
+    <t>Holy Sanctuary</t>
+  </si>
+  <si>
+    <t>74xJg</t>
+  </si>
+  <si>
     <t>Sanctuary Haven</t>
   </si>
   <si>
-    <t>Holy Sanctuary</t>
-  </si>
-  <si>
-    <t>74xJg</t>
+    <t>Jatelant Haven</t>
+  </si>
+  <si>
+    <t>Jatelant</t>
+  </si>
+  <si>
+    <t>7CboS</t>
+  </si>
+  <si>
+    <t>Garuda, Wings of Paradise</t>
+  </si>
+  <si>
+    <t>6zLEc</t>
   </si>
   <si>
     <t>Artifact Portal</t>
@@ -541,10 +665,16 @@
     <t>Aggro Dragon</t>
   </si>
   <si>
-    <t>Byron, Fullmetal Dragoon</t>
-  </si>
-  <si>
-    <t>6ixQy</t>
+    <t>Darkprison Dragon</t>
+  </si>
+  <si>
+    <t>6uNs6</t>
+  </si>
+  <si>
+    <t>Wyrmfire Engineer</t>
+  </si>
+  <si>
+    <t>73iyC</t>
   </si>
   <si>
     <t>Ambush Sword</t>
@@ -625,29 +755,35 @@
     <t>Whims of Chaos Rune</t>
   </si>
   <si>
-    <t>Jatelant Haven</t>
-  </si>
-  <si>
-    <t>Jatelant</t>
-  </si>
-  <si>
-    <t>7CboS</t>
-  </si>
-  <si>
-    <t>Garuda, Wings of Paradise</t>
-  </si>
-  <si>
-    <t>6zLEc</t>
-  </si>
-  <si>
     <t>Epitaph Blood</t>
+  </si>
+  <si>
+    <t>Mono Blood</t>
+  </si>
+  <si>
+    <t>Mono, Immortal Garnet</t>
+  </si>
+  <si>
+    <t>7G1Wo</t>
+  </si>
+  <si>
+    <t>Machina Portal</t>
+  </si>
+  <si>
+    <t>Belphomet, Ultimate Creator</t>
+  </si>
+  <si>
+    <t>7GoLy</t>
+  </si>
+  <si>
+    <t>gcvky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -659,12 +795,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -681,7 +821,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border/>
     <border>
       <left style="medium">
@@ -696,6 +836,22 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
     </border>
     <border>
       <left style="medium">
@@ -714,36 +870,51 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1037,10 +1208,10 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1052,22 +1223,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -1078,126 +1249,126 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -1208,22 +1379,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -1237,13 +1408,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>52</v>
@@ -1260,22 +1431,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -1286,126 +1457,126 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -1416,22 +1587,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -1442,22 +1613,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
@@ -1468,67 +1639,67 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1537,369 +1708,387 @@
       <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="E25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="H25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>131</v>
+      <c r="E31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -1910,100 +2099,100 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -2014,48 +2203,48 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
@@ -2065,49 +2254,49 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="A43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>14</v>
@@ -2117,49 +2306,49 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>187</v>
+      <c r="A45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>192</v>
+      <c r="A46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>14</v>
@@ -2169,197 +2358,447 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
+      <c r="C58" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -3297,6 +3736,13 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$B$1:$B$272</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="257">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -89,21 +91,6 @@
   </si>
   <si>
     <t>61oCC</t>
-  </si>
-  <si>
-    <t>Rhinoceroach Forest</t>
-  </si>
-  <si>
-    <t>Fertile Aether</t>
-  </si>
-  <si>
-    <t>6pMJg</t>
-  </si>
-  <si>
-    <t>Path to Purgatory</t>
-  </si>
-  <si>
-    <t>61Q1A</t>
   </si>
   <si>
     <t>Machina Foreset</t>
@@ -128,6 +115,15 @@
     <t>7E7SS</t>
   </si>
   <si>
+    <t>Rhinoceroach Forest</t>
+  </si>
+  <si>
+    <t>Fertile Aether</t>
+  </si>
+  <si>
+    <t>6pMJg</t>
+  </si>
+  <si>
     <t>Lockdown Sword</t>
   </si>
   <si>
@@ -218,6 +214,30 @@
     <t>72_IA</t>
   </si>
   <si>
+    <t>Aggro Sword</t>
+  </si>
+  <si>
+    <t>Princess Juliet</t>
+  </si>
+  <si>
+    <t>6LCtS</t>
+  </si>
+  <si>
+    <t>Ambush Sword</t>
+  </si>
+  <si>
+    <t>Leod, the Crescent Blade</t>
+  </si>
+  <si>
+    <t>6eK0Y</t>
+  </si>
+  <si>
+    <t>King's Welcome</t>
+  </si>
+  <si>
+    <t>6lwbA</t>
+  </si>
+  <si>
     <t>Dimension Shift Rune</t>
   </si>
   <si>
@@ -251,6 +271,72 @@
     <t>6A6RK</t>
   </si>
   <si>
+    <t>Burn Dirt Rune</t>
+  </si>
+  <si>
+    <t>Orichalcum Golem</t>
+  </si>
+  <si>
+    <t>6awkc</t>
+  </si>
+  <si>
+    <t>Mirror of Truth</t>
+  </si>
+  <si>
+    <t>6tzEg</t>
+  </si>
+  <si>
+    <t>Item Shop Rune</t>
+  </si>
+  <si>
+    <t>Arcane Item Shop</t>
+  </si>
+  <si>
+    <t>6q95g</t>
+  </si>
+  <si>
+    <t>Path to Purgatory Rune</t>
+  </si>
+  <si>
+    <t>Path to Purgatory</t>
+  </si>
+  <si>
+    <t>61Q1A</t>
+  </si>
+  <si>
+    <t>Madcap Conjuration</t>
+  </si>
+  <si>
+    <t>6_b_w</t>
+  </si>
+  <si>
+    <t>Mysteria Rune</t>
+  </si>
+  <si>
+    <t>Anne, Mysterian Prodigy</t>
+  </si>
+  <si>
+    <t>6auI2</t>
+  </si>
+  <si>
+    <t>Aggro Rune</t>
+  </si>
+  <si>
+    <t>Maiser, Neighborhood Hero</t>
+  </si>
+  <si>
+    <t>73RsI</t>
+  </si>
+  <si>
+    <t>Rivaylian Bandit</t>
+  </si>
+  <si>
+    <t>72BI2</t>
+  </si>
+  <si>
+    <t>Whims of Chaos Rune</t>
+  </si>
+  <si>
     <t>Discard Dragon</t>
   </si>
   <si>
@@ -263,12 +349,6 @@
     <t>6yB-y</t>
   </si>
   <si>
-    <t>Wildfang Dragonewt</t>
-  </si>
-  <si>
-    <t>66giW</t>
-  </si>
-  <si>
     <t>Roost Dragon</t>
   </si>
   <si>
@@ -308,6 +388,21 @@
     <t>6qVZA</t>
   </si>
   <si>
+    <t>Aggro Dragon</t>
+  </si>
+  <si>
+    <t>Darkprison Dragon</t>
+  </si>
+  <si>
+    <t>6uNs6</t>
+  </si>
+  <si>
+    <t>Wyrmfire Engineer</t>
+  </si>
+  <si>
+    <t>73iyC</t>
+  </si>
+  <si>
     <t>Aggro Shadow</t>
   </si>
   <si>
@@ -419,6 +514,30 @@
     <t>Gremory Shadow</t>
   </si>
   <si>
+    <t>Rally Tri-head Shadow</t>
+  </si>
+  <si>
+    <t>Fieran, Havensent Wind God</t>
+  </si>
+  <si>
+    <t>6-UTy</t>
+  </si>
+  <si>
+    <t>Tri-Head Hound</t>
+  </si>
+  <si>
+    <t>77-OC</t>
+  </si>
+  <si>
+    <t>Dreadlord Shadow</t>
+  </si>
+  <si>
+    <t>Conquering Dreadlord</t>
+  </si>
+  <si>
+    <t>70OYS</t>
+  </si>
+  <si>
     <t>Aggro Blood</t>
   </si>
   <si>
@@ -488,6 +607,21 @@
     <t>6c1Xi</t>
   </si>
   <si>
+    <t>Volteo Blood</t>
+  </si>
+  <si>
+    <t>Epitaph Blood</t>
+  </si>
+  <si>
+    <t>Mono Blood</t>
+  </si>
+  <si>
+    <t>Mono, Immortal Garnet</t>
+  </si>
+  <si>
+    <t>7G1Wo</t>
+  </si>
+  <si>
     <t>Elana Haven</t>
   </si>
   <si>
@@ -506,16 +640,55 @@
     <t>6Qzmg</t>
   </si>
   <si>
+    <t>78lSg</t>
+  </si>
+  <si>
     <t>Elana Summit Haven</t>
   </si>
   <si>
+    <t>Old School Summit Haven</t>
+  </si>
+  <si>
+    <t>Aether of the White Wing</t>
+  </si>
+  <si>
+    <t>6NBqI</t>
+  </si>
+  <si>
+    <t>Natura Summit Haven</t>
+  </si>
+  <si>
+    <t>Virtuous Aether</t>
+  </si>
+  <si>
+    <t>6reog</t>
+  </si>
+  <si>
+    <t>Selena, Sugarkiss Assasin</t>
+  </si>
+  <si>
+    <t>74zWI</t>
+  </si>
+  <si>
     <t>Selena Summit Haven</t>
   </si>
   <si>
-    <t>Selena, Sugarkiss Assasin</t>
-  </si>
-  <si>
-    <t>74zWI</t>
+    <t>Natura Selena Summit Haven</t>
+  </si>
+  <si>
+    <t>Natura Haven</t>
+  </si>
+  <si>
+    <t>Skillfane Haven</t>
+  </si>
+  <si>
+    <t>Skullfane</t>
+  </si>
+  <si>
+    <t>6477I</t>
+  </si>
+  <si>
+    <t>Ward Haven</t>
   </si>
   <si>
     <t>Anvelt, Judgment's Cannon</t>
@@ -524,33 +697,6 @@
     <t>74zWS</t>
   </si>
   <si>
-    <t>Pure Summit Haven</t>
-  </si>
-  <si>
-    <t>Major Prayers</t>
-  </si>
-  <si>
-    <t>6zJWw</t>
-  </si>
-  <si>
-    <t>Snnneak Attack!</t>
-  </si>
-  <si>
-    <t>6rc6o</t>
-  </si>
-  <si>
-    <t>Skillfane Haven</t>
-  </si>
-  <si>
-    <t>Skullfane</t>
-  </si>
-  <si>
-    <t>6477I</t>
-  </si>
-  <si>
-    <t>Ward Haven</t>
-  </si>
-  <si>
     <t>Enchanted Knight</t>
   </si>
   <si>
@@ -590,6 +736,24 @@
     <t>6zLEc</t>
   </si>
   <si>
+    <t>Neutral Haven</t>
+  </si>
+  <si>
+    <t>Lion of the Golden City</t>
+  </si>
+  <si>
+    <t>6JNhS</t>
+  </si>
+  <si>
+    <t>City of Gold Haven</t>
+  </si>
+  <si>
+    <t>City of Gold</t>
+  </si>
+  <si>
+    <t>6cQBg</t>
+  </si>
+  <si>
     <t>Artifact Portal</t>
   </si>
   <si>
@@ -602,147 +766,6 @@
     <t>6RHYc</t>
   </si>
   <si>
-    <t>Neutral Haven</t>
-  </si>
-  <si>
-    <t>Lion of the Golden City</t>
-  </si>
-  <si>
-    <t>6JNhS</t>
-  </si>
-  <si>
-    <t>Aggro Sword</t>
-  </si>
-  <si>
-    <t>Princess Juliet</t>
-  </si>
-  <si>
-    <t>6LCtS</t>
-  </si>
-  <si>
-    <t>Burn Dirt Rune</t>
-  </si>
-  <si>
-    <t>Orichalcum Golem</t>
-  </si>
-  <si>
-    <t>6awkc</t>
-  </si>
-  <si>
-    <t>Mirror of Truth</t>
-  </si>
-  <si>
-    <t>6tzEg</t>
-  </si>
-  <si>
-    <t>Item Shop Rune</t>
-  </si>
-  <si>
-    <t>Arcane Item Shop</t>
-  </si>
-  <si>
-    <t>6q95g</t>
-  </si>
-  <si>
-    <t>Path to Purgatory Rune</t>
-  </si>
-  <si>
-    <t>Madcap Conjuration</t>
-  </si>
-  <si>
-    <t>6_b_w</t>
-  </si>
-  <si>
-    <t>Mysteria Rune</t>
-  </si>
-  <si>
-    <t>Anne, Mysterian Prodigy</t>
-  </si>
-  <si>
-    <t>6auI2</t>
-  </si>
-  <si>
-    <t>Aggro Dragon</t>
-  </si>
-  <si>
-    <t>Darkprison Dragon</t>
-  </si>
-  <si>
-    <t>6uNs6</t>
-  </si>
-  <si>
-    <t>Wyrmfire Engineer</t>
-  </si>
-  <si>
-    <t>73iyC</t>
-  </si>
-  <si>
-    <t>Ambush Sword</t>
-  </si>
-  <si>
-    <t>Leod, the Crescent Blade</t>
-  </si>
-  <si>
-    <t>6eK0Y</t>
-  </si>
-  <si>
-    <t>King's Welcome</t>
-  </si>
-  <si>
-    <t>6lwbA</t>
-  </si>
-  <si>
-    <t>Aggro Rune</t>
-  </si>
-  <si>
-    <t>Maiser, Neighborhood Hero</t>
-  </si>
-  <si>
-    <t>73RsI</t>
-  </si>
-  <si>
-    <t>Rivaylian Bandit</t>
-  </si>
-  <si>
-    <t>72BI2</t>
-  </si>
-  <si>
-    <t>Rally Tri-head Shadow</t>
-  </si>
-  <si>
-    <t>Fieran, Havensent Wind God</t>
-  </si>
-  <si>
-    <t>6-UTy</t>
-  </si>
-  <si>
-    <t>Tri-Head Hound</t>
-  </si>
-  <si>
-    <t>77-OC</t>
-  </si>
-  <si>
-    <t>Volteo Blood</t>
-  </si>
-  <si>
-    <t>City of Gold Haven</t>
-  </si>
-  <si>
-    <t>City of Gold</t>
-  </si>
-  <si>
-    <t>6cQBg</t>
-  </si>
-  <si>
-    <t>Dreadlord Shadow</t>
-  </si>
-  <si>
-    <t>Conquering Dreadlord</t>
-  </si>
-  <si>
-    <t>70OYS</t>
-  </si>
-  <si>
     <t>Ragna OTK Portal</t>
   </si>
   <si>
@@ -750,21 +773,6 @@
   </si>
   <si>
     <t>6s65g</t>
-  </si>
-  <si>
-    <t>Whims of Chaos Rune</t>
-  </si>
-  <si>
-    <t>Epitaph Blood</t>
-  </si>
-  <si>
-    <t>Mono Blood</t>
-  </si>
-  <si>
-    <t>Mono, Immortal Garnet</t>
-  </si>
-  <si>
-    <t>7G1Wo</t>
   </si>
   <si>
     <t>Machina Portal</t>
@@ -783,7 +791,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -797,14 +805,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -870,52 +870,37 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,14 +957,14 @@
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="calibri"/>
+        <a:ea typeface="calibri"/>
+        <a:cs typeface="calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="calibri"/>
+        <a:ea typeface="calibri"/>
+        <a:cs typeface="calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1280,95 +1265,95 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -1379,22 +1364,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -1405,22 +1390,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -1431,22 +1416,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -1457,22 +1442,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -1483,100 +1468,100 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -1587,48 +1572,48 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
@@ -1639,560 +1624,560 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="G24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="D30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="F30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
+      <c r="G30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>174</v>
+        <v>130</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>167</v>
+        <v>136</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>180</v>
+      <c r="F40" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -2203,282 +2188,282 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="G43" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="H43" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
+      <c r="G45" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B48" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E48" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F48" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>14</v>
+      <c r="A50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>14</v>
@@ -2489,325 +2474,550 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B62" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E62" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="B63" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="11" t="s">
+      <c r="D63" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="E63" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="F63" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="B64" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="11" t="s">
+      <c r="D64" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="E64" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="H64" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E54" s="5" t="s">
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="B65" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="11" t="s">
+      <c r="B66" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="11" t="s">
+      <c r="D66" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="E66" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="11" t="s">
+      <c r="G66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="B67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E67" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F67" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="13" t="s">
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B68" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G58" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="5" t="s">
+      <c r="G68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="15" t="s">
+      <c r="B69" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="15" t="s">
+      <c r="C69" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E69" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="15" t="s">
+      <c r="B70" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E70" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="B71" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G62" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B72" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
+      <c r="F72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
@@ -3736,14 +3946,12 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$B$1:$B$272">
+    <sortState ref="B1:B272">
+      <sortCondition ref="B1:B272"/>
+    </sortState>
+  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Excel_and_CSV/UnlimitedMeta.xlsx
+++ b/Excel_and_CSV/UnlimitedMeta.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$B$1:$B$272</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$B$1:$B$271</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="259">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -51,13 +51,16 @@
     <t>6pQTI</t>
   </si>
   <si>
-    <t>Divine Smithing</t>
-  </si>
-  <si>
-    <t>6pOlw</t>
-  </si>
-  <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Fairy Forest</t>
+  </si>
+  <si>
+    <t>Noxious Elf</t>
+  </si>
+  <si>
+    <t>7HxbS</t>
   </si>
   <si>
     <t>Aggro Forest</t>
@@ -271,7 +274,7 @@
     <t>6A6RK</t>
   </si>
   <si>
-    <t>Burn Dirt Rune</t>
+    <t>Dirt Rune</t>
   </si>
   <si>
     <t>Orichalcum Golem</t>
@@ -280,10 +283,10 @@
     <t>6awkc</t>
   </si>
   <si>
-    <t>Mirror of Truth</t>
-  </si>
-  <si>
-    <t>6tzEg</t>
+    <t>Adamantine Golem</t>
+  </si>
+  <si>
+    <t>6_djS</t>
   </si>
   <si>
     <t>Item Shop Rune</t>
@@ -469,10 +472,10 @@
     <t>6qy7S</t>
   </si>
   <si>
-    <t>Chris, Beyond the Patch</t>
-  </si>
-  <si>
-    <t>7BoX2</t>
+    <t>Wicked Rebirth</t>
+  </si>
+  <si>
+    <t>7BpFw</t>
   </si>
   <si>
     <t xml:space="preserve">None </t>
@@ -655,30 +658,24 @@
     <t>6NBqI</t>
   </si>
   <si>
+    <t>Selena Summit Haven</t>
+  </si>
+  <si>
+    <t>Selena, Sugarkiss Assasin</t>
+  </si>
+  <si>
+    <t>74zWI</t>
+  </si>
+  <si>
+    <t>Virtuous Aether</t>
+  </si>
+  <si>
+    <t>6reog</t>
+  </si>
+  <si>
     <t>Natura Summit Haven</t>
   </si>
   <si>
-    <t>Virtuous Aether</t>
-  </si>
-  <si>
-    <t>6reog</t>
-  </si>
-  <si>
-    <t>Selena, Sugarkiss Assasin</t>
-  </si>
-  <si>
-    <t>74zWI</t>
-  </si>
-  <si>
-    <t>Selena Summit Haven</t>
-  </si>
-  <si>
-    <t>Natura Selena Summit Haven</t>
-  </si>
-  <si>
-    <t>Natura Haven</t>
-  </si>
-  <si>
     <t>Skillfane Haven</t>
   </si>
   <si>
@@ -754,10 +751,19 @@
     <t>6cQBg</t>
   </si>
   <si>
+    <t>Genesis Artifact Portal</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Genesis Artifact</t>
+  </si>
+  <si>
+    <t>7KcUo</t>
+  </si>
+  <si>
     <t>Artifact Portal</t>
-  </si>
-  <si>
-    <t>Portal</t>
   </si>
   <si>
     <t>Acceleratium</t>
@@ -791,7 +797,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -806,6 +812,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -870,18 +881,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -891,6 +914,12 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -899,7 +928,7 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1151,7 @@
     <col customWidth="1" min="2" max="2" width="12.25"/>
     <col customWidth="1" min="3" max="3" width="22.13"/>
     <col customWidth="1" min="4" max="4" width="14.75"/>
-    <col customWidth="1" min="5" max="5" width="22.75"/>
+    <col customWidth="1" min="5" max="5" width="32.75"/>
     <col customWidth="1" min="6" max="6" width="12.25"/>
     <col customWidth="1" min="7" max="7" width="13.13"/>
     <col customWidth="1" min="8" max="8" width="14.5"/>
@@ -1167,867 +1196,867 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>65</v>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>97</v>
+      <c r="E22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="E24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="F25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="H25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="D26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
+      <c r="F26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>14</v>
+      <c r="E27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>14</v>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
+      <c r="E29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>146</v>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2035,129 +2064,129 @@
         <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>158</v>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>137</v>
+      <c r="G38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>156</v>
+      <c r="H39" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -2165,337 +2194,337 @@
         <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>179</v>
+      <c r="E42" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>181</v>
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="E45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>188</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="G46" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="H46" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D48" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="F48" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="B49" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="D49" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="F49" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="G49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="D51" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="E51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="H51" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -2503,155 +2532,155 @@
         <v>210</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>212</v>
+      <c r="F53" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="E54" s="13" t="s">
         <v>212</v>
       </c>
+      <c r="F54" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" s="13" t="s">
         <v>217</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>215</v>
+      <c r="G58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2659,365 +2688,340 @@
         <v>219</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>14</v>
+      <c r="F59" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>215</v>
+      <c r="B60" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>215</v>
+      <c r="A61" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>208</v>
+        <v>12</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>223</v>
+      <c r="A62" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>228</v>
+      <c r="A63" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>233</v>
+      <c r="A64" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>233</v>
+      <c r="A65" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>14</v>
+      <c r="A66" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>241</v>
+      <c r="A67" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>14</v>
+        <v>248</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>14</v>
+      <c r="A68" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>14</v>
+      <c r="C69" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>14</v>
+      <c r="A70" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="A71" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="B71" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="D71" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="F71" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1"/>
     <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
@@ -3945,11 +3949,10 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$B$1:$B$272">
-    <sortState ref="B1:B272">
-      <sortCondition ref="B1:B272"/>
+  <autoFilter ref="$B$1:$B$271">
+    <sortState ref="B1:B271">
+      <sortCondition ref="B1:B271"/>
     </sortState>
   </autoFilter>
   <printOptions/>
